--- a/data/bal_potavel_ts.xlsx
+++ b/data/bal_potavel_ts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vasco Abreu - PC\Documents\Python Projects\Matriz_Agua\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vasco Abreu - PC\Documents\Python Projects\matrizagua\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E25FA345-6DDD-405E-A37E-B0F662BA2000}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06286806-B843-4460-96F4-E02D35228168}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E3D6597C-0801-4E01-B5C9-9EA8E08CEBC4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E3D6597C-0801-4E01-B5C9-9EA8E08CEBC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -95,7 +95,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -104,6 +104,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -122,7 +125,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -421,20 +424,20 @@
   <dimension ref="A1:G69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G12"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -457,7 +460,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>2008</v>
       </c>
@@ -480,8 +483,8 @@
         <v>109.6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
         <v>2009</v>
       </c>
       <c r="B3" s="2">
@@ -503,7 +506,7 @@
         <v>114.1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2010</v>
       </c>
@@ -526,8 +529,8 @@
         <v>118.4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
         <v>2011</v>
       </c>
       <c r="B5" s="2">
@@ -549,7 +552,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2012</v>
       </c>
@@ -572,8 +575,8 @@
         <v>103.7</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
         <v>2013</v>
       </c>
       <c r="B7" s="2">
@@ -595,7 +598,7 @@
         <v>103.1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>2014</v>
       </c>
@@ -618,8 +621,8 @@
         <v>101.12</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
         <v>2015</v>
       </c>
       <c r="B9" s="2">
@@ -641,7 +644,7 @@
         <v>102.2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>2016</v>
       </c>
@@ -664,8 +667,8 @@
         <v>98.16</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
         <v>2017</v>
       </c>
       <c r="B11" s="2">
@@ -687,7 +690,7 @@
         <v>99.66</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>2018</v>
       </c>
@@ -710,176 +713,196 @@
         <v>93.5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>2019</v>
+      </c>
+      <c r="B13" s="2">
+        <v>29.9</v>
+      </c>
+      <c r="C13" s="2">
+        <v>59.6</v>
+      </c>
+      <c r="D13" s="2">
+        <v>55</v>
+      </c>
+      <c r="E13" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="F13" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="G13" s="2">
+        <v>89.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C21" s="2"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C33" s="2"/>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C34" s="2"/>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C35" s="2"/>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C36" s="2"/>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C37" s="2"/>
     </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C38" s="2"/>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C39" s="2"/>
     </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C40" s="2"/>
     </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C41" s="2"/>
     </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C42" s="2"/>
     </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C43" s="2"/>
     </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C44" s="2"/>
     </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C46" s="2"/>
     </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C47" s="2"/>
     </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C48" s="2"/>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C49" s="2"/>
     </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C50" s="2"/>
     </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C51" s="2"/>
     </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C52" s="2"/>
     </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C53" s="2"/>
     </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C54" s="2"/>
     </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C55" s="2"/>
     </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C56" s="2"/>
     </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C57" s="2"/>
     </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C58" s="2"/>
     </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C59" s="2"/>
     </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C60" s="2"/>
     </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C61" s="2"/>
     </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C62" s="2"/>
     </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C63" s="2"/>
     </row>
-    <row r="64" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C64" s="2"/>
     </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C65" s="2"/>
     </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C66" s="2"/>
     </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C67" s="2"/>
     </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C68" s="2"/>
     </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C69" s="2"/>
     </row>
   </sheetData>
